--- a/my-python-code/DataProcess/Rebate/Rebate变更记录.xlsx
+++ b/my-python-code/DataProcess/Rebate/Rebate变更记录.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F96A79-A85D-4AF4-8534-CE6BE5BF6C9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52D3062-E768-4F3E-9A15-DE66534DB5DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -412,7 +417,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D10" sqref="A8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
